--- a/v1.2/omap/OMAP_Pancreas_CODEX.xlsx
+++ b/v1.2/omap/OMAP_Pancreas_CODEX.xlsx
@@ -1,52 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OMAP_Pancreas_CODEX.csv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,16 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -150,7 +199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -185,7 +233,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -220,16 +267,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -351,244 +402,1833 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>Organ Mapping Antibody Panel (OMAP) for Multiplexed Antibody-Based Imaging of Human Pancreas with CODEX</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Organ Mapping Antibody Panel (OMAP) for Multiplexed Antibody-Based Imaging of Human Pancreas with CODEX</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="inlineStr"/>
+      <c r="M1" t="inlineStr"/>
+      <c r="N1" t="inlineStr"/>
+      <c r="O1" t="inlineStr"/>
+      <c r="P1" t="inlineStr"/>
+      <c r="Q1" t="inlineStr"/>
+      <c r="R1" t="inlineStr"/>
+      <c r="S1" t="inlineStr"/>
+      <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>Author Name(s):</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Author Name(s):</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Anna Martinez Casals, Frida Björklund</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>Author ORCID(s):</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Author ORCID(s):</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0000-0003-2722-1965, 0000-0002-3343-349X</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>Reviewer(s):</v>
-      </c>
-      <c r="B5" t="str">
-        <v/>
-      </c>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Reviewer(s):</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Katja Steiger, Christopher Werlein</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>Reviewer ORCID(s):</v>
-      </c>
-      <c r="B6" t="str">
-        <v/>
-      </c>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Reviewer ORCID(s):</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0000-0002-7269-5433, 0000-0002-7694-4257</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>General Publication(s):</v>
-      </c>
-      <c r="B7" t="str">
-        <v/>
-      </c>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>General Publication(s):</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>Data DOI:</v>
-      </c>
-      <c r="B8" t="str">
-        <v/>
-      </c>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Data DOI:</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48539/HBM395.LXKX.734</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>Date:</v>
-      </c>
-      <c r="B9" t="str">
-        <v/>
-      </c>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>May 6, 2022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>Version number</v>
-      </c>
-      <c r="B10" t="str">
-        <v/>
-      </c>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Version number </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>v1.0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>uniprot_accession_number</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Rationale</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>uniprot_accession_number</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HGNC_ID</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>target_name</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>antibody_name</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>host_organism</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>clonality</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>vendor</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>catalog_number</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>lot_number</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>recombinant</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Dilution/Concentration</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Conjugate</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>RRID</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Tissue Preservation</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Cycle Number</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>DOI for Protocol</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Fluorescent reporter</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>ORCID ID of Author</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Core Panel (4-6 markers)</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Essential 25-plex</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Rationale</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>P01275</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Alpha cells in pancreatic islets</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P01275</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HGNC:4191</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Pro-Glucagon</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Human GLP-1 Antibody</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Mouse,IgG2B</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>970307</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>R&amp;D Systems</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>MAB12491</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1/100</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Oligonucleotide</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>AB_2895089</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>IHC</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>CODEX</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>FFPE</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41596-021-00556-8</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Atto550</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0000-0003-2722-1965, 0000-0002-3343-349X</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Alpha cells in pancreatic islets</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>P35222</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Cell adhesion marker needed for cell segmentation</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P35222</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HGNC:2514</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Beta-catenin</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Anti-CTNNB1 antibody</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mouse,IgG2a</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CL3689</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Atlas Antibodies</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>AMab91209</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Oligonucleotide</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>AB_2665844</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>IHC</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>CODEX</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>FFPE</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41596-021-00556-8</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Cy5</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0000-0003-2722-1965, 0000-0002-3343-349X</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Cell adhesion marker needed for cell segmentation</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>P01308</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Beta cells in pancreatic islets</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P01308</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HGNC:6081</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Insulin</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>C-Peptide Monoclonal Antibody (C-PEP-01)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Mouse, IgG1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>C-PEP-01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Thermo Fisher</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>MA1-19159</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Oligonucleotide</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>AB_1073884</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>IHC</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>CODEX</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>FFPE</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41596-021-00556-8</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Atto550</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0000-0003-2722-1965, 0000-0002-3343-349X</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Beta cells in pancreatic islets</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>P08727</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Ductal cells</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P08727</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HGNC:6436</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Keratin-19</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Cytokeratin 19 antibody [A53-B/A2]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Mouse, IgG2a</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A53-B/A2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Abcam</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ab7754</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1/100</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Oligonucleotide</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>AB_306048</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>IHC</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>CODEX</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>FFPE</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41596-021-00556-8</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Atto550</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0000-0003-2722-1965, 0000-0002-3343-349X</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Ductal cells</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>P16284</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Endothelial cells</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>P16284</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HGNC:8823</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PECAM-1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Recombinant Anti-CD31 antibody</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Rabbit IgG</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>EP3095</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Abcam</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ab134168</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Oligonucleotide</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>AB_2890012</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>IHC</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>CODEX</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>FFPE</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41596-021-00556-8</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Alexa Fluor 488</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>0000-0003-2722-1965, 0000-0002-3343-349X</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Endothelial cells</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>P61278</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Delta cells in pancreatic islets</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P61278</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HGNC:11329</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Somatostatin</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Somatostatin Antibody (7G5)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Mouse, IgG1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7G5</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Novus Biologicals</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NBP2-37447</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1/150</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Oligonucleotide</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>AB_2890053</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>IHC</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>CODEX</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>FFPE</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41596-021-00556-8</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Atto550</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0000-0003-2722-1965, 0000-0002-3343-349X</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Delta cells in pancreatic islets</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
-        <v>P12830</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Cell adhesion marker needed for cell segmentation</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>P12830</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HGNC:1748</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>E-cadherin</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>E-cadherin Monoclonal Antibody</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Mouse,  IgG1 Kappa</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4A2C7</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Thermo Fisher</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>33-4000</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1/100</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Oligonucleotide</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>AB_2533118</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>IHC</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>CODEX</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>FFPE</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>6</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41596-021-00556-8</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Atto550</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0000-0003-2722-1965, 0000-0002-3343-349X</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Cell adhesion marker needed for cell segmentation</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
-        <v>P01298</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Gamma cells in pancreatic cells</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P01298</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HGNC:9327</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Pancreatic polypeptide</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Anti-Pancreatic Polypeptide antibody</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Rabbit, IgG</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Polyclonal</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Abcam</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ab113694</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1/100</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Oligonucleotide</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>AB_11156699</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>IHC</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>CODEX</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>FFPE</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>7</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41596-021-00556-8</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Atto550</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0000-0003-2722-1965, 0000-0002-3343-349X</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Gamma cells in pancreatic cells</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
-        <v>P10645</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Neuroendocrine marker</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>P10645</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HGNC:1929</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Chromogranin-A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Chromogranin A Antibody (LK2H10 + PHE5 + CGA/414)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Mouse, IgG1 Kappa</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LK2H10 + PHE5 + CGA/414</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Novus Biologicals</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NBP2-34674</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1/200</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Oligonucleotide</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>AB_2864388</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>IHC</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>CODEX</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>FFPE</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>8</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41596-021-00556-8</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Cy5</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0000-0003-2722-1965, 0000-0002-3343-349X</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Neuroendocrine marker</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>P62736</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Smooth muscle cells</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>P62736</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HGNC:130</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Alpha actin 2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Anti-alpha smooth muscle Actin</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Mouse, IgG1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4A4</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Abcam</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>ab119952</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Oligonucleotide</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>AB_10901360</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>IHC</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>CODEX</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>FFPE</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>9</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41596-021-00556-8</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Alexa Fluor 488</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>0000-0003-2722-1965, 0000-0002-3343-349X</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Smooth muscle cells</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
-        <v>P10997</v>
-      </c>
-      <c r="B22" t="str">
-        <v>Beta cells in pancreatic islets</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>P10997</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HGNC:5329</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Islet amyloid polypeptide</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Anti-IAPP polyclonal antibody</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Rabbit, IgG</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Polyclonal</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Atlas Antibodies</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>HPA053194</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1/100</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Oligonucleotide</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>AB_2682076</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>IHC</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>CODEX</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>FFPE</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>9</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41596-021-00556-8</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Atto550</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>0000-0003-2722-1965, 0000-0002-3343-349X</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Beta cells in pancreatic islets</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
-        <v>P08670</v>
-      </c>
-      <c r="B23" t="str">
-        <v>Mesenchymal cells</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>P08670</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HGNC:12692</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Vimentin</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Purified anti-Vimentin Antibody</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mouse, IgG2a
+                </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>O91D3</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Biolegend</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>677802</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1/100</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Oligonucleotide</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>AB_2565982</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>IHC</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>CODEX</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>FFPE</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>10</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41596-021-00556-8</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Cy5</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>0000-0003-2722-1965, 0000-0002-3343-349X</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Mesenchymal cells</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B23"/>
-  </ignoredErrors>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>